--- a/public/preprocessing/@ustadadihidayat.xlsx
+++ b/public/preprocessing/@ustadadihidayat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14946</v>
+        <v>29652</v>
       </c>
       <c r="C2" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt barakallahu fiikum semoga bermanfaat</t>
+          <t xml:space="preserve">syukur kepada atas doa keluarga semua telah lahir puteri kami pada hari kamis rajab </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+          <t>['syukur', 'kepada', 'atas', 'doa', 'keluarga', 'semua', 'telah', 'lahir', 'puteri', 'kami', 'pada', 'hari', 'kamis', 'rajab']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['syukur', 'kepada', 'atas', 'doa', 'keluarga', 'semua', 'telah', 'lahir', 'puteri', 'kami', 'pada', 'hari', 'kamis', 'rajab']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
+          <t>['syukur', 'doa', 'keluarga', 'lahir', 'puteri', 'kamis', 'rajab']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['syukur', 'doa', 'keluarga', 'lahir', 'puter', 'kamis', 'rajab']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14947</v>
+        <v>29653</v>
       </c>
       <c r="C3" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
         </is>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14948</v>
+        <v>29654</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rahasia apa yg terkandung dalam nuzulul quran hal ini yang insyaallah akan dibahas di program aku suka edisi ra</t>
+          <t>rt barakallahu fiikum semoga bermanfaat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rahasia', 'apa', 'yg', 'terkandung', 'dalam', 'nuzulul', 'quran', 'hal', 'ini', 'yang', 'insyaallah', 'akan', 'dibahas', 'di', 'program', 'aku', 'suka', 'edisi', 'ra']</t>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['rahasia', 'terkandung', 'nuzulul', 'quran', 'insyaallah', 'dibahas', 'program', 'suka', 'edisi', 'ra']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['rahasia', 'kandung', 'nuzulul', 'quran', 'insyaallah', 'bahas', 'program', 'suka', 'edisi', 'ra']</t>
+          <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14949</v>
+        <v>29655</v>
       </c>
       <c r="C5" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">menyambung dengan materi sebelumnya tentang fenomena dukhan yang dikaitkan dengan tandatanda akhir zaman ustadz </t>
+          <t>rahasia apa yg terkandung dalam nuzulul quran hal ini yang insyaallah akan dibahas di program aku suka edisi ra</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['menyambung', 'dengan', 'materi', 'sebelumnya', 'tentang', 'fenomena', 'dukhan', 'yang', 'dikaitkan', 'dengan', 'tandatanda', 'akhir', 'zaman', 'ustadz']</t>
+          <t>['rahasia', 'apa', 'yg', 'terkandung', 'dalam', 'nuzulul', 'quran', 'hal', 'ini', 'yang', 'insyaallah', 'akan', 'dibahas', 'di', 'program', 'aku', 'suka', 'edisi', 'ra']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rahasia', 'apa', 'yang', 'terkandung', 'dalam', 'nuzulul', 'alquran', 'hal', 'ini', 'yang', 'insyaallah', 'akan', 'dibahas', 'di', 'program', 'aku', 'suka', 'edisi', 'ra']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['menyambung', 'materi', 'fenomena', 'dukhan', 'dikaitkan', 'tandatanda', 'zaman', 'ustadz']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['sambung', 'materi', 'fenomena', 'dukhan', 'kait', 'tandatanda', 'zaman', 'ustadz']</t>
+          <t>['rahasia', 'terkandung', 'nuzulul', 'alquran', 'insyaallah', 'dibahas', 'program', 'suka', 'edisi', 'ra']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['rahasia', 'kandung', 'nuzulul', 'alquran', 'insyaallah', 'bahas', 'program', 'suka', 'edisi', 'ra']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14950</v>
+        <v>29656</v>
       </c>
       <c r="C6" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>isu akan adanya fenomena dukhan dan benturan asteroid yang akan terjadi di ramadhan  telah viral di masyara</t>
+          <t xml:space="preserve">menyambung dengan materi sebelumnya tentang fenomena dukhan yang dikaitkan dengan tandatanda akhir zaman ustadz </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['isu', 'akan', 'adanya', 'fenomena', 'dukhan', 'dan', 'benturan', 'asteroid', 'yang', 'akan', 'terjadi', 'di', 'ramadhan', 'telah', 'viral', 'di', 'masyara']</t>
+          <t>['menyambung', 'dengan', 'materi', 'sebelumnya', 'tentang', 'fenomena', 'dukhan', 'yang', 'dikaitkan', 'dengan', 'tandatanda', 'akhir', 'zaman', 'ustadz']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['menyambung', 'dengan', 'materi', 'sebelumnya', 'tentang', 'fenomena', 'dukhan', 'yang', 'dikaitkan', 'dengan', 'tandatanda', 'akhir', 'zaman', 'ustaz']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['isu', 'fenomena', 'dukhan', 'benturan', 'asteroid', 'ramadhan', 'viral', 'masyara']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['isu', 'fenomena', 'dukhan', 'bentur', 'asteroid', 'ramadhan', 'viral', 'masyara']</t>
+          <t>['menyambung', 'materi', 'fenomena', 'dukhan', 'dikaitkan', 'tandatanda', 'zaman', 'ustaz']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['sambung', 'materi', 'fenomena', 'dukhan', 'kait', 'tandatanda', 'zaman', 'ustaz']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14951</v>
+        <v>29657</v>
       </c>
       <c r="C7" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>program aku suka ramadhan  masih membahas cara terbaik kitaberinteraksi dengan alquran di bulan ramadhan</t>
+          <t>isu akan adanya fenomena dukhan dan benturan asteroid yang akan terjadi di ramadhan  telah viral di masyara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['program', 'aku', 'suka', 'ramadhan', 'masih', 'membahas', 'cara', 'terbaik', 'kitaberinteraksi', 'dengan', 'alquran', 'di', 'bulan', 'ramadhan']</t>
+          <t>['isu', 'akan', 'adanya', 'fenomena', 'dukhan', 'dan', 'benturan', 'asteroid', 'yang', 'akan', 'terjadi', 'di', 'ramadhan', 'telah', 'viral', 'di', 'masyara']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['isu', 'akan', 'adanya', 'fenomena', 'dukhan', 'dan', 'benturan', 'asteroid', 'yang', 'akan', 'terjadi', 'di', 'ramadan', 'telah', 'viral', 'di', 'masyara']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['program', 'suka', 'ramadhan', 'membahas', 'terbaik', 'kitaberinteraksi', 'alquran', 'ramadhan']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['program', 'suka', 'ramadhan', 'bahas', 'baik', 'kitaberinteraksi', 'alquran', 'ramadhan']</t>
+          <t>['isu', 'fenomena', 'dukhan', 'benturan', 'asteroid', 'ramadan', 'viral', 'masyara']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['isu', 'fenomena', 'dukhan', 'bentur', 'asteroid', 'ramadan', 'viral', 'masyara']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14952</v>
+        <v>29658</v>
       </c>
       <c r="C8" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bulan ramadhan adalah saat yang paling tepat untuk kita berinteraksi dengan alquran hal ini akan dibahas lebih me</t>
+          <t>program aku suka ramadhan  masih membahas cara terbaik kitaberinteraksi dengan alquran di bulan ramadhan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['bulan', 'ramadhan', 'adalah', 'saat', 'yang', 'paling', 'tepat', 'untuk', 'kita', 'berinteraksi', 'dengan', 'alquran', 'hal', 'ini', 'akan', 'dibahas', 'lebih', 'me']</t>
+          <t>['program', 'aku', 'suka', 'ramadhan', 'masih', 'membahas', 'cara', 'terbaik', 'kitaberinteraksi', 'dengan', 'alquran', 'di', 'bulan', 'ramadhan']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['program', 'aku', 'suka', 'ramadan', 'masih', 'membahas', 'cara', 'terbaik', 'kitaberinteraksi', 'dengan', 'alquran', 'di', 'bulan', 'ramadan']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['ramadhan', 'berinteraksi', 'alquran', 'dibahas', 'me']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['ramadhan', 'interaksi', 'alquran', 'bahas', 'me']</t>
+          <t>['program', 'suka', 'ramadan', 'membahas', 'terbaik', 'kitaberinteraksi', 'alquran', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['program', 'suka', 'ramadan', 'bahas', 'baik', 'kitaberinteraksi', 'alquran', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14953</v>
+        <v>29659</v>
       </c>
       <c r="C9" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>program aku suka ramadhan  akan membahas amalan terbaik saat menjalani ibadah puasa simak kajiannya yang</t>
+          <t>bulan ramadhan adalah saat yang paling tepat untuk kita berinteraksi dengan alquran hal ini akan dibahas lebih me</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['program', 'aku', 'suka', 'ramadhan', 'akan', 'membahas', 'amalan', 'terbaik', 'saat', 'menjalani', 'ibadah', 'puasa', 'simak', 'kajiannya', 'yang']</t>
+          <t>['bulan', 'ramadhan', 'adalah', 'saat', 'yang', 'paling', 'tepat', 'untuk', 'kita', 'berinteraksi', 'dengan', 'alquran', 'hal', 'ini', 'akan', 'dibahas', 'lebih', 'me']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bulan', 'ramadan', 'adalah', 'saat', 'yang', 'paling', 'tepat', 'untuk', 'kita', 'berinteraksi', 'dengan', 'alquran', 'hal', 'ini', 'akan', 'dibahas', 'lebih', 'me']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['program', 'suka', 'ramadhan', 'membahas', 'amalan', 'terbaik', 'menjalani', 'ibadah', 'puasa', 'simak', 'kajiannya']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['program', 'suka', 'ramadhan', 'bahas', 'amal', 'baik', 'jalan', 'ibadah', 'puasa', 'simak', 'kaji']</t>
+          <t>['ramadan', 'berinteraksi', 'alquran', 'dibahas', 'me']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['ramadan', 'interaksi', 'alquran', 'bahas', 'me']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14954</v>
+        <v>29660</v>
       </c>
       <c r="C10" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt harta terbaik adalah kejujuran senjata terkuat itu kesabaran aset terbesar kita iman alat komunikasi yang paling canggih</t>
+          <t>program aku suka ramadhan  akan membahas amalan terbaik saat menjalani ibadah puasa simak kajiannya yang</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'harta', 'terbaik', 'adalah', 'kejujuran', 'senjata', 'terkuat', 'itu', 'kesabaran', 'aset', 'terbesar', 'kita', 'iman', 'alat', 'komunikasi', 'yang', 'paling', 'canggih']</t>
+          <t>['program', 'aku', 'suka', 'ramadhan', 'akan', 'membahas', 'amalan', 'terbaik', 'saat', 'menjalani', 'ibadah', 'puasa', 'simak', 'kajiannya', 'yang']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['program', 'aku', 'suka', 'ramadan', 'akan', 'membahas', 'amalan', 'terbaik', 'saat', 'menjalani', 'ibadah', 'puasa', 'simak', 'kajiannya', 'yang']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['harta', 'terbaik', 'kejujuran', 'senjata', 'terkuat', 'kesabaran', 'aset', 'terbesar', 'iman', 'alat', 'komunikasi', 'canggih']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['harta', 'baik', 'jujur', 'senjata', 'kuat', 'sabar', 'aset', 'besar', 'iman', 'alat', 'komunikasi', 'canggih']</t>
+          <t>['program', 'suka', 'ramadan', 'membahas', 'amalan', 'terbaik', 'menjalani', 'ibadah', 'puasa', 'simak', 'kajiannya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['program', 'suka', 'ramadan', 'bahas', 'amal', 'baik', 'jalan', 'ibadah', 'puasa', 'simak', 'kaji']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14955</v>
+        <v>29661</v>
       </c>
       <c r="C11" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>program aku suka ramadhan  akan membahas lebih mendalam mengenai qiyam ramadhan sholat tarawih simak</t>
+          <t>rt harta terbaik adalah kejujuran senjata terkuat itu kesabaran aset terbesar kita iman alat komunikasi yang paling canggih</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['program', 'aku', 'suka', 'ramadhan', 'akan', 'membahas', 'lebih', 'mendalam', 'mengenai', 'qiyam', 'ramadhan', 'sholat', 'tarawih', 'simak']</t>
+          <t>['rt', 'harta', 'terbaik', 'adalah', 'kejujuran', 'senjata', 'terkuat', 'itu', 'kesabaran', 'aset', 'terbesar', 'kita', 'iman', 'alat', 'komunikasi', 'yang', 'paling', 'canggih']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'harta', 'terbaik', 'adalah', 'kejujuran', 'senjata', 'terkuat', 'itu', 'kesabaran', 'aset', 'terbesar', 'kita', 'iman', 'alat', 'komunikasi', 'yang', 'paling', 'canggih']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['program', 'suka', 'ramadhan', 'membahas', 'mendalam', 'qiyam', 'ramadhan', 'sholat', 'tarawih', 'simak']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['program', 'suka', 'ramadhan', 'bahas', 'dalam', 'qiyam', 'ramadhan', 'sholat', 'tarawih', 'simak']</t>
+          <t>['harta', 'terbaik', 'kejujuran', 'senjata', 'terkuat', 'kesabaran', 'aset', 'terbesar', 'iman', 'alat', 'komunikasi', 'canggih']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['harta', 'baik', 'jujur', 'senjata', 'kuat', 'sabar', 'aset', 'besar', 'iman', 'alat', 'komunikasi', 'canggih']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14956</v>
+        <v>29662</v>
       </c>
       <c r="C12" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>assalamualaikum program aku suka edisi ramadhan akan membahas amalan utama ramadhan simak kajiannya yg</t>
+          <t>program aku suka ramadhan  akan membahas lebih mendalam mengenai qiyam ramadhan sholat tarawih simak</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'program', 'aku', 'suka', 'edisi', 'ramadhan', 'akan', 'membahas', 'amalan', 'utama', 'ramadhan', 'simak', 'kajiannya', 'yg']</t>
+          <t>['program', 'aku', 'suka', 'ramadhan', 'akan', 'membahas', 'lebih', 'mendalam', 'mengenai', 'qiyam', 'ramadhan', 'sholat', 'tarawih', 'simak']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['program', 'aku', 'suka', 'ramadan', 'akan', 'membahas', 'lebih', 'mendalam', 'mengenai', 'qiyam', 'ramadan', 'salat', 'tarawih', 'simak']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'program', 'suka', 'edisi', 'ramadhan', 'membahas', 'amalan', 'utama', 'ramadhan', 'simak', 'kajiannya']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'program', 'suka', 'edisi', 'ramadhan', 'bahas', 'amal', 'utama', 'ramadhan', 'simak', 'kaji']</t>
+          <t>['program', 'suka', 'ramadan', 'membahas', 'mendalam', 'qiyam', 'ramadan', 'salat', 'tarawih', 'simak']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['program', 'suka', 'ramadan', 'bahas', 'dalam', 'qiyam', 'ramadan', 'salat', 'tarawih', 'simak']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14957</v>
+        <v>29663</v>
       </c>
       <c r="C13" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>marhaban yaa ramadhan</t>
+          <t>assalamualaikum program aku suka edisi ramadhan akan membahas amalan utama ramadhan simak kajiannya yg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['marhaban', 'yaa', 'ramadhan']</t>
+          <t>['assalamualaikum', 'program', 'aku', 'suka', 'edisi', 'ramadhan', 'akan', 'membahas', 'amalan', 'utama', 'ramadhan', 'simak', 'kajiannya', 'yg']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['assalamualaikum', 'program', 'aku', 'suka', 'edisi', 'ramadan', 'akan', 'membahas', 'amalan', 'utama', 'ramadan', 'simak', 'kajiannya', 'yang']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['marhaban', 'yaa', 'ramadhan']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['marhaban', 'yaa', 'ramadhan']</t>
+          <t>['assalamualaikum', 'program', 'suka', 'edisi', 'ramadan', 'membahas', 'amalan', 'utama', 'ramadan', 'simak', 'kajiannya']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'program', 'suka', 'edisi', 'ramadan', 'bahas', 'amal', 'utama', 'ramadan', 'simak', 'kaji']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14958</v>
+        <v>29664</v>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>assalamualaikum simak kajian fiqh ramadhan bagian ke yang insyaallah akan disiarkan live di channel fb dan youtu</t>
+          <t>marhaban yaa ramadhan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'fiqh', 'ramadhan', 'bagian', 'ke', 'yang', 'insyaallah', 'akan', 'disiarkan', 'live', 'di', 'channel', 'fb', 'dan', 'youtu']</t>
+          <t>['marhaban', 'yaa', 'ramadhan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['marhaban', 'ya', 'ramadan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'fiqh', 'ramadhan', 'insyaallah', 'disiarkan', 'live', 'channel', 'fb', 'youtu']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kaji', 'fiqh', 'ramadhan', 'insyaallah', 'siar', 'live', 'channel', 'fb', 'youtu']</t>
+          <t>['marhaban', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['marhaban', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14959</v>
+        <v>29665</v>
       </c>
       <c r="C15" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>assalamualaikum simak kajian khusus menghafal alquran untuk bulan ramadhan bagian insyaallah akan disiarkan</t>
+          <t>assalamualaikum simak kajian fiqh ramadhan bagian ke yang insyaallah akan disiarkan live di channel fb dan youtu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'untuk', 'bulan', 'ramadhan', 'bagian', 'insyaallah', 'akan', 'disiarkan']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'fiqh', 'ramadhan', 'bagian', 'ke', 'yang', 'insyaallah', 'akan', 'disiarkan', 'live', 'di', 'channel', 'fb', 'dan', 'youtu']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'fiqh', 'ramadan', 'bagian', 'ke', 'yang', 'insyaallah', 'akan', 'disiarkan', 'live', 'di', 'channel', 'facebook', 'dan', 'youtu']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'ramadhan', 'insyaallah', 'disiarkan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kaji', 'khusus', 'hafal', 'alquran', 'ramadhan', 'insyaallah', 'siar']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'fiqh', 'ramadan', 'insyaallah', 'disiarkan', 'live', 'channel', 'facebook', 'youtu']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'simak', 'kaji', 'fiqh', 'ramadan', 'insyaallah', 'siar', 'live', 'channel', 'facebook', 'youtu']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14960</v>
+        <v>29666</v>
       </c>
       <c r="C16" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>akhlak muslim untuk para syuhada covid</t>
+          <t>assalamualaikum simak kajian khusus menghafal alquran untuk bulan ramadhan bagian insyaallah akan disiarkan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['akhlak', 'muslim', 'untuk', 'para', 'syuhada', 'covid']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'untuk', 'bulan', 'ramadhan', 'bagian', 'insyaallah', 'akan', 'disiarkan']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'untuk', 'bulan', 'ramadan', 'bagian', 'insyaallah', 'akan', 'disiarkan']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['akhlak', 'muslim', 'syuhada', 'covid']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['akhlak', 'muslim', 'syuhada', 'covid']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'ramadan', 'insyaallah', 'disiarkan']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'simak', 'kaji', 'khusus', 'hafal', 'alquran', 'ramadan', 'insyaallah', 'siar']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14961</v>
+        <v>29667</v>
       </c>
       <c r="C17" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>assalamualaikum simak kajian khusus menghafal alquran untuk ramadhan bagian ke dua inyaallah akan disiarkan live</t>
+          <t>akhlak muslim untuk para syuhada covid</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'untuk', 'ramadhan', 'bagian', 'ke', 'dua', 'inyaallah', 'akan', 'disiarkan', 'live']</t>
+          <t>['akhlak', 'muslim', 'untuk', 'para', 'syuhada', 'covid']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['akhlak', 'muslim', 'untuk', 'para', 'syuhada', 'covid']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'ramadhan', 'inyaallah', 'disiarkan', 'live']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kaji', 'khusus', 'hafal', 'alquran', 'ramadhan', 'inyaallah', 'siar', 'live']</t>
+          <t>['akhlak', 'muslim', 'syuhada', 'covid']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['akhlak', 'muslim', 'syuhada', 'covid']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14962</v>
+        <v>29668</v>
       </c>
       <c r="C18" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>assalamualaikum simak kajian khusus menghafal alquran dibulan ramadhan siang hari ini pukul</t>
+          <t>assalamualaikum simak kajian khusus menghafal alquran untuk ramadhan bagian ke dua inyaallah akan disiarkan live</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'dibulan', 'ramadhan', 'siang', 'hari', 'ini', 'pukul']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'untuk', 'ramadhan', 'bagian', 'ke', 'dua', 'inyaallah', 'akan', 'disiarkan', 'live']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'untuk', 'ramadan', 'bagian', 'ke', 'dua', 'inyaallah', 'akan', 'disiarkan', 'live']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'dibulan', 'ramadhan', 'siang']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'simak', 'kaji', 'khusus', 'hafal', 'alquran', 'bulan', 'ramadhan', 'siang']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'ramadan', 'inyaallah', 'disiarkan', 'live']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'simak', 'kaji', 'khusus', 'hafal', 'alquran', 'ramadan', 'inyaallah', 'siar', 'live']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14963</v>
+        <v>29669</v>
       </c>
       <c r="C19" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>this tweet from has been withheld in indonesia</t>
+          <t>assalamualaikum simak kajian khusus menghafal alquran dibulan ramadhan siang hari ini pukul</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'dibulan', 'ramadhan', 'siang', 'hari', 'ini', 'pukul']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'dibulan', 'ramadan', 'siang', 'hari', 'ini', 'pukul']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
+          <t>['assalamualaikum', 'simak', 'kajian', 'khusus', 'menghafal', 'alquran', 'dibulan', 'ramadan', 'siang']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'simak', 'kaji', 'khusus', 'hafal', 'alquran', 'bulan', 'ramadan', 'siang']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14964</v>
+        <v>29670</v>
       </c>
       <c r="C20" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt barakallahu fiikum semoga bermanfaat</t>
+          <t>this tweet from has been withheld in indonesia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14965</v>
+        <v>29671</v>
       </c>
       <c r="C21" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
         </is>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14966</v>
+        <v>29672</v>
       </c>
       <c r="C22" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt jika anda sulit menjauh dari larangan allah berarti anda belum dekat dengan allah ust adi hidayat</t>
+          <t>rt barakallahu fiikum semoga bermanfaat</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'anda', 'sulit', 'menjauh', 'dari', 'larangan', 'allah', 'berarti', 'anda', 'belum', 'dekat', 'dengan', 'allah', 'ust', 'adi', 'hidayat']</t>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['sulit', 'menjauh', 'larangan', 'allah', 'allah', 'ust', 'adi', 'hidayat']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['sulit', 'jauh', 'larang', 'allah', 'allah', 'ust', 'adi', 'hidayat']</t>
+          <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14967</v>
+        <v>29673</v>
       </c>
       <c r="C23" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>bersama memerangi covid tetap bersinergi dan berkontribusi dalam keadaan terbatas semoga alloh segera mengangk</t>
+          <t>rt jika anda sulit menjauh dari larangan allah berarti anda belum dekat dengan allah ust adi hidayat</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['bersama', 'memerangi', 'covid', 'tetap', 'bersinergi', 'dan', 'berkontribusi', 'dalam', 'keadaan', 'terbatas', 'semoga', 'alloh', 'segera', 'mengangk']</t>
+          <t>['rt', 'jika', 'anda', 'sulit', 'menjauh', 'dari', 'larangan', 'allah', 'berarti', 'anda', 'belum', 'dekat', 'dengan', 'allah', 'ust', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'jika', 'anda', 'sulit', 'menjauh', 'dari', 'larangan', 'allah', 'berarti', 'anda', 'belum', 'dekat', 'dengan', 'allah', 'ustaz', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['memerangi', 'covid', 'bersinergi', 'berkontribusi', 'terbatas', 'semoga', 'alloh', 'mengangk']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['rang', 'covid', 'sinergi', 'kontribusi', 'batas', 'moga', 'alloh', 'mengangk']</t>
+          <t>['sulit', 'menjauh', 'larangan', 'allah', 'allah', 'ustaz', 'adi', 'hidayat']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['sulit', 'jauh', 'larang', 'allah', 'allah', 'ustaz', 'adi', 'hidayat']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14968</v>
+        <v>29674</v>
       </c>
       <c r="C24" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cukup senangkan rabbmu</t>
+          <t>bersama memerangi covid tetap bersinergi dan berkontribusi dalam keadaan terbatas semoga alloh segera mengangk</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['cukup', 'senangkan', 'rabbmu']</t>
+          <t>['bersama', 'memerangi', 'covid', 'tetap', 'bersinergi', 'dan', 'berkontribusi', 'dalam', 'keadaan', 'terbatas', 'semoga', 'alloh', 'segera', 'mengangk']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bersama', 'memerangi', 'covid', 'tetap', 'bersinergi', 'dan', 'berkontribusi', 'dalam', 'keadaan', 'terbatas', 'semoga', 'allah', 'segera', 'mengangk']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['senangkan', 'rabbmu']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['senang', 'rabbmu']</t>
+          <t>['memerangi', 'covid', 'bersinergi', 'berkontribusi', 'terbatas', 'semoga', 'allah', 'mengangk']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['rang', 'covid', 'sinergi', 'kontribusi', 'batas', 'moga', 'allah', 'mengangk']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14969</v>
+        <v>29675</v>
       </c>
       <c r="C25" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>doa agar terhindar dari wabah penyakit</t>
+          <t>cukup senangkan rabbmu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['doa', 'agar', 'terhindar', 'dari', 'wabah', 'penyakit']</t>
+          <t>['cukup', 'senangkan', 'rabbmu']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['cukup', 'senangkan', 'rabbmu']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['doa', 'terhindar', 'wabah', 'penyakit']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['doa', 'hindar', 'wabah', 'sakit']</t>
+          <t>['senangkan', 'rabbmu']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['senang', 'rabbmu']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14970</v>
+        <v>29676</v>
       </c>
       <c r="C26" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt racun tidak mempan kepada khalid bin walid simak sirah sahabat yang dipaparkan oleh ustadz adi hidayat ini ngeriii ka</t>
+          <t>doa agar terhindar dari wabah penyakit</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'racun', 'tidak', 'mempan', 'kepada', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'yang', 'dipaparkan', 'oleh', 'ustadz', 'adi', 'hidayat', 'ini', 'ngeriii', 'ka']</t>
+          <t>['doa', 'agar', 'terhindar', 'dari', 'wabah', 'penyakit']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['doa', 'agar', 'terhindar', 'dari', 'wabah', 'penyakit']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['racun', 'mempan', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'dipaparkan', 'ustadz', 'adi', 'hidayat', 'ngeriii', 'ka']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['racun', 'mempan', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'papar', 'ustadz', 'adi', 'hidayat', 'ngeriii', 'ka']</t>
+          <t>['doa', 'terhindar', 'wabah', 'penyakit']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['doa', 'hindar', 'wabah', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14971</v>
+        <v>29677</v>
       </c>
       <c r="C27" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt barakallahu fiikum semoga bermanfaat</t>
+          <t>rt racun tidak mempan kepada khalid bin walid simak sirah sahabat yang dipaparkan oleh ustadz adi hidayat ini ngeriii ka</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+          <t>['rt', 'racun', 'tidak', 'mempan', 'kepada', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'yang', 'dipaparkan', 'oleh', 'ustadz', 'adi', 'hidayat', 'ini', 'ngeriii', 'ka']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'racun', 'tidak', 'mempan', 'kepada', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'yang', 'dipaparkan', 'oleh', 'ustaz', 'adi', 'hidayat', 'ini', 'ngeriii', 'kakak']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
+          <t>['racun', 'mempan', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'dipaparkan', 'ustaz', 'adi', 'hidayat', 'ngeriii', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['racun', 'mempan', 'khalid', 'bin', 'walid', 'simak', 'sirah', 'sahabat', 'papar', 'ustaz', 'adi', 'hidayat', 'ngeriii', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14972</v>
+        <v>29678</v>
       </c>
       <c r="C28" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>edisi bersih bersih</t>
+          <t>rt barakallahu fiikum semoga bermanfaat</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['edisi', 'bersih', 'bersih']</t>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['edisi', 'bersih', 'bersih']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['edisi', 'bersih', 'bersih']</t>
+          <t>['barakallahu', 'fiikum', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['barakallahu', 'fiikum', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14973</v>
+        <v>29679</v>
       </c>
       <c r="C29" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>mengisi waktu dengan melengkapi metode at taisir nantikan buku barunya</t>
+          <t>edisi bersih bersih</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['mengisi', 'waktu', 'dengan', 'melengkapi', 'metode', 'at', 'taisir', 'nantikan', 'buku', 'barunya']</t>
+          <t>['edisi', 'bersih', 'bersih']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['edisi', 'bersih', 'bersih']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['mengisi', 'melengkapi', 'metode', 'at', 'taisir', 'nantikan', 'buku', 'barunya']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['isi', 'lengkap', 'metode', 'at', 'taisir', 'nanti', 'buku', 'baru']</t>
+          <t>['edisi', 'bersih', 'bersih']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['edisi', 'bersih', 'bersih']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14974</v>
+        <v>29680</v>
       </c>
       <c r="C30" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt berlomba dengan pendosa kawan tidak ada manusia yang sempurna karena kita bukan malaikat tapi kita bisa berubah ka</t>
+          <t>mengisi waktu dengan melengkapi metode at taisir nantikan buku barunya</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'berlomba', 'dengan', 'pendosa', 'kawan', 'tidak', 'ada', 'manusia', 'yang', 'sempurna', 'karena', 'kita', 'bukan', 'malaikat', 'tapi', 'kita', 'bisa', 'berubah', 'ka']</t>
+          <t>['mengisi', 'waktu', 'dengan', 'melengkapi', 'metode', 'at', 'taisir', 'nantikan', 'buku', 'barunya']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['mengisi', 'waktu', 'dengan', 'melengkapi', 'metode', 'at', 'taisir', 'nantikan', 'buku', 'barunya']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['berlomba', 'pendosa', 'kawan', 'manusia', 'sempurna', 'malaikat', 'berubah', 'ka']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['lomba', 'dosa', 'kawan', 'manusia', 'sempurna', 'malaikat', 'ubah', 'ka']</t>
+          <t>['mengisi', 'melengkapi', 'metode', 'at', 'taisir', 'nantikan', 'buku', 'barunya']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['isi', 'lengkap', 'metode', 'at', 'taisir', 'nanti', 'buku', 'baru']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14975</v>
+        <v>29681</v>
       </c>
       <c r="C31" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt jika anda sulit menjauh dari larangan allah berarti anda belum dekat dengan allah adi hidayat</t>
+          <t>rt berlomba dengan pendosa kawan tidak ada manusia yang sempurna karena kita bukan malaikat tapi kita bisa berubah ka</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'anda', 'sulit', 'menjauh', 'dari', 'larangan', 'allah', 'berarti', 'anda', 'belum', 'dekat', 'dengan', 'allah', 'adi', 'hidayat']</t>
+          <t>['rt', 'berlomba', 'dengan', 'pendosa', 'kawan', 'tidak', 'ada', 'manusia', 'yang', 'sempurna', 'karena', 'kita', 'bukan', 'malaikat', 'tapi', 'kita', 'bisa', 'berubah', 'ka']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'berlomba', 'dengan', 'pendosa', 'kawan', 'tidak', 'ada', 'manusia', 'yang', 'sempurna', 'karena', 'kita', 'bukan', 'malaikat', 'tapi', 'kita', 'bisa', 'berubah', 'kakak']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['sulit', 'menjauh', 'larangan', 'allah', 'allah', 'adi', 'hidayat']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['sulit', 'jauh', 'larang', 'allah', 'allah', 'adi', 'hidayat']</t>
+          <t>['berlomba', 'pendosa', 'kawan', 'manusia', 'sempurna', 'malaikat', 'berubah', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['lomba', 'dosa', 'kawan', 'manusia', 'sempurna', 'malaikat', 'ubah', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14976</v>
+        <v>29682</v>
       </c>
       <c r="C32" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gtgt gtgt milad daarut tauhid kajian yang begitu menguras air mata disampaikan oleh guruguru</t>
+          <t>rt jika anda sulit menjauh dari larangan allah berarti anda belum dekat dengan allah adi hidayat</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kajian', 'yang', 'begitu', 'menguras', 'air', 'mata', 'disampaikan', 'oleh', 'guruguru']</t>
+          <t>['rt', 'jika', 'anda', 'sulit', 'menjauh', 'dari', 'larangan', 'allah', 'berarti', 'anda', 'belum', 'dekat', 'dengan', 'allah', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'jika', 'anda', 'sulit', 'menjauh', 'dari', 'larangan', 'allah', 'berarti', 'anda', 'belum', 'dekat', 'dengan', 'allah', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kajian', 'menguras', 'air', 'mata', 'guruguru']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kaji', 'uras', 'air', 'mata', 'guruguru']</t>
+          <t>['sulit', 'menjauh', 'larangan', 'allah', 'allah', 'adi', 'hidayat']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['sulit', 'jauh', 'larang', 'allah', 'allah', 'adi', 'hidayat']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14977</v>
+        <v>29683</v>
       </c>
       <c r="C33" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt allah lebih menyukai pelaku maksiat yang bertobat dibanding orang sholeh yang tidak pernah merasa salah adi hidayat</t>
+          <t>gtgt gtgt milad daarut tauhid kajian yang begitu menguras air mata disampaikan oleh guruguru</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'allah', 'lebih', 'menyukai', 'pelaku', 'maksiat', 'yang', 'bertobat', 'dibanding', 'orang', 'sholeh', 'yang', 'tidak', 'pernah', 'merasa', 'salah', 'adi', 'hidayat']</t>
+          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kajian', 'yang', 'begitu', 'menguras', 'air', 'mata', 'disampaikan', 'oleh', 'guruguru']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kajian', 'yang', 'begitu', 'menguras', 'air', 'mata', 'disampaikan', 'oleh', 'guruguru']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['allah', 'menyukai', 'pelaku', 'maksiat', 'bertobat', 'dibanding', 'orang', 'sholeh', 'salah', 'adi', 'hidayat']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['allah', 'suka', 'laku', 'maksiat', 'tobat', 'banding', 'orang', 'sholeh', 'salah', 'adi', 'hidayat']</t>
+          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kajian', 'menguras', 'air', 'mata', 'guruguru']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['gtgt', 'gtgt', 'milad', 'daarut', 'tauhid', 'kaji', 'uras', 'air', 'mata', 'guruguru']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14978</v>
+        <v>29684</v>
       </c>
       <c r="C34" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ibu tahun lalu beliau melahirkan saya mengenalkan dengan apik dan lembut akan dunia tepat dihari lahirnya ak</t>
+          <t>rt allah lebih menyukai pelaku maksiat yang bertobat dibanding orang sholeh yang tidak pernah merasa salah adi hidayat</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['ibu', 'tahun', 'lalu', 'beliau', 'melahirkan', 'saya', 'mengenalkan', 'dengan', 'apik', 'dan', 'lembut', 'akan', 'dunia', 'tepat', 'dihari', 'lahirnya', 'ak']</t>
+          <t>['rt', 'allah', 'lebih', 'menyukai', 'pelaku', 'maksiat', 'yang', 'bertobat', 'dibanding', 'orang', 'sholeh', 'yang', 'tidak', 'pernah', 'merasa', 'salah', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'allah', 'lebih', 'menyukai', 'pelaku', 'maksiat', 'yang', 'bertobat', 'dibanding', 'orang', 'saleh', 'yang', 'tidak', 'pernah', 'merasa', 'salah', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['beliau', 'melahirkan', 'mengenalkan', 'apik', 'lembut', 'dunia', 'dihari', 'lahirnya', 'ak']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['beliau', 'lahir', 'kenal', 'apik', 'lembut', 'dunia', 'hari', 'lahir', 'ak']</t>
+          <t>['allah', 'menyukai', 'pelaku', 'maksiat', 'bertobat', 'dibanding', 'orang', 'saleh', 'salah', 'adi', 'hidayat']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['allah', 'suka', 'laku', 'maksiat', 'tobat', 'banding', 'orang', 'saleh', 'salah', 'adi', 'hidayat']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14979</v>
+        <v>29685</v>
       </c>
       <c r="C35" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt coba renungkan jika allah wafatkan anda hari ini sudah siapkah bekal anda pulang kepada allah adi hidayat</t>
+          <t>ibu tahun lalu beliau melahirkan saya mengenalkan dengan apik dan lembut akan dunia tepat dihari lahirnya ak</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'coba', 'renungkan', 'jika', 'allah', 'wafatkan', 'anda', 'hari', 'ini', 'sudah', 'siapkah', 'bekal', 'anda', 'pulang', 'kepada', 'allah', 'adi', 'hidayat']</t>
+          <t>['ibu', 'tahun', 'lalu', 'beliau', 'melahirkan', 'saya', 'mengenalkan', 'dengan', 'apik', 'dan', 'lembut', 'akan', 'dunia', 'tepat', 'dihari', 'lahirnya', 'ak']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['ibu', 'tahun', 'lalu', 'beliau', 'melahirkan', 'saya', 'mengenalkan', 'dengan', 'apik', 'dan', 'lembut', 'akan', 'dunia', 'tepat', 'dihari', 'lahirnya', 'aku']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['coba', 'renungkan', 'allah', 'wafatkan', 'siapkah', 'bekal', 'pulang', 'allah', 'adi', 'hidayat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['coba', 'renung', 'allah', 'wafat', 'siap', 'bekal', 'pulang', 'allah', 'adi', 'hidayat']</t>
+          <t>['beliau', 'melahirkan', 'mengenalkan', 'apik', 'lembut', 'dunia', 'dihari', 'lahirnya']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['beliau', 'lahir', 'kenal', 'apik', 'lembut', 'dunia', 'hari', 'lahir']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14980</v>
+        <v>29686</v>
       </c>
       <c r="C36" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt sampai saat ini saya belum jelas apa sebenarnya kesalahan luthfi smg allah karuniakan kekuatan amp ketabahan kepadamu dan juga</t>
+          <t>rt coba renungkan jika allah wafatkan anda hari ini sudah siapkah bekal anda pulang kepada allah adi hidayat</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'sampai', 'saat', 'ini', 'saya', 'belum', 'jelas', 'apa', 'sebenarnya', 'kesalahan', 'luthfi', 'smg', 'allah', 'karuniakan', 'kekuatan', 'amp', 'ketabahan', 'kepadamu', 'dan', 'juga']</t>
+          <t>['rt', 'coba', 'renungkan', 'jika', 'allah', 'wafatkan', 'anda', 'hari', 'ini', 'sudah', 'siapkah', 'bekal', 'anda', 'pulang', 'kepada', 'allah', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'coba', 'renungkan', 'jika', 'allah', 'wafatkan', 'anda', 'hari', 'ini', 'sudah', 'siapkah', 'bekal', 'anda', 'pulang', 'kepada', 'allah', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['kesalahan', 'luthfi', 'smg', 'allah', 'karuniakan', 'kekuatan', 'ketabahan', 'kepadamu']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['salah', 'luthfi', 'smg', 'allah', 'karunia', 'kuat', 'tabah', 'kepada']</t>
+          <t>['coba', 'renungkan', 'allah', 'wafatkan', 'siapkah', 'bekal', 'pulang', 'allah', 'adi', 'hidayat']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['coba', 'renung', 'allah', 'wafat', 'siap', 'bekal', 'pulang', 'allah', 'adi', 'hidayat']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14981</v>
+        <v>29687</v>
       </c>
       <c r="C37" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt dunia kita sudah jelas yang belum jelas adalah akhirat kita sudahkah kita menyiapkan bekal untuk pulang menghadapnya</t>
+          <t>rt sampai saat ini saya belum jelas apa sebenarnya kesalahan luthfi smg allah karuniakan kekuatan amp ketabahan kepadamu dan juga</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'dunia', 'kita', 'sudah', 'jelas', 'yang', 'belum', 'jelas', 'adalah', 'akhirat', 'kita', 'sudahkah', 'kita', 'menyiapkan', 'bekal', 'untuk', 'pulang', 'menghadapnya']</t>
+          <t>['rt', 'sampai', 'saat', 'ini', 'saya', 'belum', 'jelas', 'apa', 'sebenarnya', 'kesalahan', 'luthfi', 'smg', 'allah', 'karuniakan', 'kekuatan', 'amp', 'ketabahan', 'kepadamu', 'dan', 'juga']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'sampai', 'saat', 'ini', 'saya', 'belum', 'jelas', 'apa', 'sebenarnya', 'kesalahan', 'luthfi', 'semoga', 'allah', 'karuniakan', 'kekuatan', 'amp', 'ketabahan', 'kepadamu', 'dan', 'juga']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['dunia', 'akhirat', 'bekal', 'pulang', 'menghadapnya']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['dunia', 'akhirat', 'bekal', 'pulang', 'hadap']</t>
+          <t>['kesalahan', 'luthfi', 'semoga', 'allah', 'karuniakan', 'kekuatan', 'ketabahan', 'kepadamu']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['salah', 'luthfi', 'moga', 'allah', 'karunia', 'kuat', 'tabah', 'kepada']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14982</v>
+        <v>29688</v>
       </c>
       <c r="C38" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt warga tewas dan stdknya korban luka akibat serangan bom israel ke jalur gaza dalam dua hari november</t>
+          <t>rt dunia kita sudah jelas yang belum jelas adalah akhirat kita sudahkah kita menyiapkan bekal untuk pulang menghadapnya</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'warga', 'tewas', 'dan', 'stdknya', 'korban', 'luka', 'akibat', 'serangan', 'bom', 'israel', 'ke', 'jalur', 'gaza', 'dalam', 'dua', 'hari', 'november']</t>
+          <t>['rt', 'dunia', 'kita', 'sudah', 'jelas', 'yang', 'belum', 'jelas', 'adalah', 'akhirat', 'kita', 'sudahkah', 'kita', 'menyiapkan', 'bekal', 'untuk', 'pulang', 'menghadapnya']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'dunia', 'kita', 'sudah', 'jelas', 'yang', 'belum', 'jelas', 'adalah', 'akhirat', 'kita', 'sudahkah', 'kita', 'menyiapkan', 'bekal', 'untuk', 'pulang', 'menghadapnya']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['warga', 'tewas', 'stdknya', 'korban', 'luka', 'akibat', 'serangan', 'bom', 'israel', 'jalur', 'gaza', 'november']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['warga', 'tewas', 'stdknya', 'korban', 'luka', 'akibat', 'serang', 'bom', 'israel', 'jalur', 'gaza', 'november']</t>
+          <t>['dunia', 'akhirat', 'bekal', 'pulang', 'menghadapnya']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['dunia', 'akhirat', 'bekal', 'pulang', 'hadap']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14983</v>
+        <v>29689</v>
       </c>
       <c r="C39" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt dunia harus tau siapa teroris yg sebenarnya</t>
+          <t>rt warga tewas dan stdknya korban luka akibat serangan bom israel ke jalur gaza dalam dua hari november</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'dunia', 'harus', 'tau', 'siapa', 'teroris', 'yg', 'sebenarnya']</t>
+          <t>['rt', 'warga', 'tewas', 'dan', 'stdknya', 'korban', 'luka', 'akibat', 'serangan', 'bom', 'israel', 'ke', 'jalur', 'gaza', 'dalam', 'dua', 'hari', 'november']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'warga', 'tewas', 'dan', 'stdknya', 'korban', 'luka', 'akibat', 'serangan', 'bom', 'israel', 'ke', 'jalur', 'gaza', 'dalam', 'dua', 'hari', 'november']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['dunia', 'teroris']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['dunia', 'teroris']</t>
+          <t>['warga', 'tewas', 'stdknya', 'korban', 'luka', 'akibat', 'serangan', 'bom', 'israel', 'jalur', 'gaza', 'november']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['warga', 'tewas', 'stdknya', 'korban', 'luka', 'akibat', 'serang', 'bom', 'israel', 'jalur', 'gaza', 'november']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14984</v>
+        <v>29690</v>
       </c>
       <c r="C40" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt setiap yang bernyawa akan merasakan mati kemudian hany</t>
+          <t>rt dunia harus tau siapa teroris yg sebenarnya</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'setiap', 'yang', 'bernyawa', 'akan', 'merasakan', 'mati', 'kemudian', 'hany']</t>
+          <t>['rt', 'dunia', 'harus', 'tau', 'siapa', 'teroris', 'yg', 'sebenarnya']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'dunia', 'harus', 'tau', 'siapa', 'teroris', 'yang', 'sebenarnya']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['bernyawa', 'merasakan', 'mati', 'hany']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['nyawa', 'rasa', 'mati', 'hany']</t>
+          <t>['dunia', 'teroris']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['dunia', 'teroris']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14985</v>
+        <v>29691</v>
       </c>
       <c r="C41" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt habis lelah stlh roadshow lumayan terhibur melihat video ini robbana maa kholaqta hadza baatilasungguh allah tdk pernah</t>
+          <t>rt setiap yang bernyawa akan merasakan mati kemudian hany</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'habis', 'lelah', 'stlh', 'roadshow', 'lumayan', 'terhibur', 'melihat', 'video', 'ini', 'robbana', 'maa', 'kholaqta', 'hadza', 'baatilasungguh', 'allah', 'tdk', 'pernah']</t>
+          <t>['rt', 'setiap', 'yang', 'bernyawa', 'akan', 'merasakan', 'mati', 'kemudian', 'hany']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'setiap', 'yang', 'bernyawa', 'akan', 'merasakan', 'mati', 'kemudian', 'hany']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['habis', 'lelah', 'stlh', 'roadshow', 'lumayan', 'terhibur', 'video', 'robbana', 'maa', 'kholaqta', 'hadza', 'baatilasungguh', 'allah']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['habis', 'lelah', 'stlh', 'roadshow', 'lumayan', 'hibur', 'video', 'robbana', 'maa', 'kholaqta', 'hadza', 'baatilasungguh', 'allah']</t>
+          <t>['bernyawa', 'merasakan', 'mati', 'hany']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['nyawa', 'rasa', 'mati', 'hany']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14986</v>
+        <v>29692</v>
       </c>
       <c r="C42" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt wahai orangorang yang beriman bertobatlah kepada allah dengan tobat yang semurnimurninya barakallahu fiikum http</t>
+          <t>rt habis lelah stlh roadshow lumayan terhibur melihat video ini robbana maa kholaqta hadza baatilasungguh allah tdk pernah</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'wahai', 'orangorang', 'yang', 'beriman', 'bertobatlah', 'kepada', 'allah', 'dengan', 'tobat', 'yang', 'semurnimurninya', 'barakallahu', 'fiikum', 'http']</t>
+          <t>['rt', 'habis', 'lelah', 'stlh', 'roadshow', 'lumayan', 'terhibur', 'melihat', 'video', 'ini', 'robbana', 'maa', 'kholaqta', 'hadza', 'baatilasungguh', 'allah', 'tdk', 'pernah']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'habis', 'lelah', 'setelah', 'roadshow', 'lumayan', 'terhibur', 'melihat', 'video', 'ini', 'robbana', 'mak', 'kholaqta', 'hadza', 'baatilasungguh', 'allah', 'tidak', 'pernah']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['orangorang', 'beriman', 'bertobatlah', 'allah', 'tobat', 'semurnimurninya', 'barakallahu', 'fiikum', 'http']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['orangorang', 'iman', 'tobat', 'allah', 'tobat', 'semurnimurninya', 'barakallahu', 'fiikum', 'http']</t>
+          <t>['habis', 'lelah', 'roadshow', 'lumayan', 'terhibur', 'video', 'robbana', 'mak', 'kholaqta', 'hadza', 'baatilasungguh', 'allah']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['habis', 'lelah', 'roadshow', 'lumayan', 'hibur', 'video', 'robbana', 'mak', 'kholaqta', 'hadza', 'baatilasungguh', 'allah']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14987</v>
+        <v>29693</v>
       </c>
       <c r="C43" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>sebentar saja anda renungkan barakallahu fiikum</t>
+          <t>rt wahai orangorang yang beriman bertobatlah kepada allah dengan tobat yang semurnimurninya barakallahu fiikum http</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['sebentar', 'saja', 'anda', 'renungkan', 'barakallahu', 'fiikum']</t>
+          <t>['rt', 'wahai', 'orangorang', 'yang', 'beriman', 'bertobatlah', 'kepada', 'allah', 'dengan', 'tobat', 'yang', 'semurnimurninya', 'barakallahu', 'fiikum', 'http']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'wahai', 'orangorang', 'yang', 'beriman', 'bertobatlah', 'kepada', 'allah', 'dengan', 'tobat', 'yang', 'semurnimurninya', 'barakallahu', 'fiikum', 'hypertext, transfer, protocol']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['sebentar', 'renungkan', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['sebentar', 'renung', 'barakallahu', 'fiikum']</t>
+          <t>['orangorang', 'beriman', 'bertobatlah', 'allah', 'tobat', 'semurnimurninya', 'barakallahu', 'fiikum', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['orangorang', 'iman', 'tobat', 'allah', 'tobat', 'semurnimurninya', 'barakallahu', 'fiikum', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14988</v>
+        <v>29694</v>
       </c>
       <c r="C44" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt senyummu dihadapan saudaramu adalah sedekah bagimu hr attirmidzi </t>
+          <t>sebentar saja anda renungkan barakallahu fiikum</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'senyummu', 'dihadapan', 'saudaramu', 'adalah', 'sedekah', 'bagimu', 'hr', 'attirmidzi']</t>
+          <t>['sebentar', 'saja', 'anda', 'renungkan', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['sebentar', 'saja', 'anda', 'renungkan', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['senyummu', 'dihadapan', 'saudaramu', 'sedekah', 'bagimu', 'hr', 'attirmidzi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['senyum', 'hadap', 'saudara', 'sedekah', 'bagi', 'hr', 'attirmidzi']</t>
+          <t>['sebentar', 'renungkan', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['sebentar', 'renung', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14989</v>
+        <v>29695</v>
       </c>
       <c r="C45" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>liverpool vs mu berbeda tidak harus menghalangi kita untuk hidup berdampingan amp minum teh bersama adi hiday</t>
+          <t xml:space="preserve">rt senyummu dihadapan saudaramu adalah sedekah bagimu hr attirmidzi </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['liverpool', 'vs', 'mu', 'berbeda', 'tidak', 'harus', 'menghalangi', 'kita', 'untuk', 'hidup', 'berdampingan', 'amp', 'minum', 'teh', 'bersama', 'adi', 'hiday']</t>
+          <t>['rt', 'senyummu', 'dihadapan', 'saudaramu', 'adalah', 'sedekah', 'bagimu', 'hr', 'attirmidzi']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'senyummu', 'dihadapan', 'saudaramu', 'adalah', 'sedekah', 'bagimu', 'hari', 'attirmidzi']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['liverpool', 'vs', 'mu', 'berbeda', 'menghalangi', 'hidup', 'berdampingan', 'minum', 'teh', 'adi', 'hiday']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['liverpool', 'vs', 'mu', 'beda', 'halang', 'hidup', 'damping', 'minum', 'teh', 'adi', 'hiday']</t>
+          <t>['senyummu', 'dihadapan', 'saudaramu', 'sedekah', 'bagimu', 'attirmidzi']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['senyum', 'hadap', 'saudara', 'sedekah', 'bagi', 'attirmidzi']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14990</v>
+        <v>29696</v>
       </c>
       <c r="C46" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt jangan khawatir dunia memang terkadang melelahkan kita menanti janji allah saat kelak beristirahat menuju akhirat</t>
+          <t>liverpool vs mu berbeda tidak harus menghalangi kita untuk hidup berdampingan amp minum teh bersama adi hiday</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'khawatir', 'dunia', 'memang', 'terkadang', 'melelahkan', 'kita', 'menanti', 'janji', 'allah', 'saat', 'kelak', 'beristirahat', 'menuju', 'akhirat']</t>
+          <t>['liverpool', 'vs', 'mu', 'berbeda', 'tidak', 'harus', 'menghalangi', 'kita', 'untuk', 'hidup', 'berdampingan', 'amp', 'minum', 'teh', 'bersama', 'adi', 'hiday']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['liverpool', 'lawan', 'mu', 'berbeda', 'tidak', 'harus', 'menghalangi', 'kita', 'untuk', 'hidup', 'berdampingan', 'amp', 'minum', 'teh', 'bersama', 'adi', 'hiday']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['khawatir', 'dunia', 'terkadang', 'melelahkan', 'janji', 'allah', 'kelak', 'beristirahat', 'akhirat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['khawatir', 'dunia', 'terkadang', 'lelah', 'janji', 'allah', 'kelak', 'istirahat', 'akhirat']</t>
+          <t>['liverpool', 'lawan', 'mu', 'berbeda', 'menghalangi', 'hidup', 'berdampingan', 'minum', 'teh', 'adi', 'hiday']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['liverpool', 'lawan', 'mu', 'beda', 'halang', 'hidup', 'damping', 'minum', 'teh', 'adi', 'hiday']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14991</v>
+        <v>29697</v>
       </c>
       <c r="C47" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>semoga bermanfaat barakallahu fiikum</t>
+          <t>rt jangan khawatir dunia memang terkadang melelahkan kita menanti janji allah saat kelak beristirahat menuju akhirat</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>['rt', 'jangan', 'khawatir', 'dunia', 'memang', 'terkadang', 'melelahkan', 'kita', 'menanti', 'janji', 'allah', 'saat', 'kelak', 'beristirahat', 'menuju', 'akhirat']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'jangan', 'khawatir', 'dunia', 'memang', 'terkadang', 'melelahkan', 'kita', 'menanti', 'janji', 'allah', 'saat', 'kelak', 'beristirahat', 'menuju', 'akhirat']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['moga', 'manfaat', 'barakallahu', 'fiikum']</t>
+          <t>['khawatir', 'dunia', 'terkadang', 'melelahkan', 'janji', 'allah', 'kelak', 'beristirahat', 'akhirat']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['khawatir', 'dunia', 'terkadang', 'lelah', 'janji', 'allah', 'kelak', 'istirahat', 'akhirat']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14992</v>
+        <v>29698</v>
       </c>
       <c r="C48" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
+          <t>semoga bermanfaat barakallahu fiikum</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['moga', 'manfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14993</v>
+        <v>29699</v>
       </c>
       <c r="C49" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jika kita belum mampu berlomba dengan orang sholeh dalam meningkatkan kebaikan sebaiknya berlombalah dengan para</t>
+          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['jika', 'kita', 'belum', 'mampu', 'berlomba', 'dengan', 'orang', 'sholeh', 'dalam', 'meningkatkan', 'kebaikan', 'sebaiknya', 'berlombalah', 'dengan', 'para']</t>
+          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['berlomba', 'orang', 'sholeh', 'meningkatkan', 'kebaikan', 'berlombalah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['lomba', 'orang', 'sholeh', 'tingkat', 'baik', 'lomba']</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'lapor', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14994</v>
+        <v>29700</v>
       </c>
       <c r="C50" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>solusi setiap masalah barakallahu fiikum</t>
+          <t>jika kita belum mampu berlomba dengan orang sholeh dalam meningkatkan kebaikan sebaiknya berlombalah dengan para</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['solusi', 'setiap', 'masalah', 'barakallahu', 'fiikum']</t>
+          <t>['jika', 'kita', 'belum', 'mampu', 'berlomba', 'dengan', 'orang', 'sholeh', 'dalam', 'meningkatkan', 'kebaikan', 'sebaiknya', 'berlombalah', 'dengan', 'para']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['jika', 'kita', 'belum', 'mampu', 'berlomba', 'dengan', 'orang', 'saleh', 'dalam', 'meningkatkan', 'kebaikan', 'sebaiknya', 'berlombalah', 'dengan', 'para']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['solusi', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['solusi', 'barakallahu', 'fiikum']</t>
+          <t>['berlomba', 'orang', 'saleh', 'meningkatkan', 'kebaikan', 'berlombalah']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['lomba', 'orang', 'saleh', 'tingkat', 'baik', 'lomba']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14995</v>
+        <v>29701</v>
       </c>
       <c r="C51" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ikhwan fillah menjadi penjahit yang shaleh lebih terh</t>
+          <t>solusi setiap masalah barakallahu fiikum</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['ikhwan', 'fillah', 'menjadi', 'penjahit', 'yang', 'shaleh', 'lebih', 'terh']</t>
+          <t>['solusi', 'setiap', 'masalah', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['solusi', 'setiap', 'masalah', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['ikhwan', 'fillah', 'penjahit', 'shaleh', 'terh']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['ikhwan', 'fillah', 'jahit', 'shaleh', 'terh']</t>
+          <t>['solusi', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['solusi', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14996</v>
+        <v>29702</v>
       </c>
       <c r="C52" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
+          <t>ikhwan fillah menjadi penjahit yang shaleh lebih terh</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['ikhwan', 'fillah', 'menjadi', 'penjahit', 'yang', 'shaleh', 'lebih', 'terh']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['ikhwan', 'fillah', 'menjadi', 'penjahit', 'yang', 'saleh', 'lebih', 'terh']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['ikhwan', 'fillah', 'penjahit', 'saleh', 'terh']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['ikhwan', 'fillah', 'jahit', 'saleh', 'terh']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14997</v>
+        <v>29703</v>
       </c>
       <c r="C53" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bismillah semoga bermanfaat barakallahu fiikum full kajian by youtube adi hidayat official tanya jawab fi</t>
+          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['bismillah', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum', 'full', 'kajian', 'by', 'youtube', 'adi', 'hidayat', 'official', 'tanya', 'jawab', 'fi']</t>
+          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['bismillah', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum', 'full', 'kajian', 'by', 'youtube', 'adi', 'hidayat', 'official', 'fi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['bismillah', 'moga', 'manfaat', 'barakallahu', 'fiikum', 'full', 'kaji', 'by', 'youtube', 'adi', 'hidayat', 'official', 'fi']</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'lapor', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14998</v>
+        <v>29704</v>
       </c>
       <c r="C54" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jodohmu sudah ditentukan tapi harus diusahakan jemput jodohmu dengan cara yang baik semoga berjumpa jodoh shol</t>
+          <t>bismillah semoga bermanfaat barakallahu fiikum full kajian by youtube adi hidayat official tanya jawab fi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['jodohmu', 'sudah', 'ditentukan', 'tapi', 'harus', 'diusahakan', 'jemput', 'jodohmu', 'dengan', 'cara', 'yang', 'baik', 'semoga', 'berjumpa', 'jodoh', 'shol']</t>
+          <t>['bismillah', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum', 'full', 'kajian', 'by', 'youtube', 'adi', 'hidayat', 'official', 'tanya', 'jawab', 'fi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['bismillah', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum', 'full', 'kajian', 'by', 'youtube', 'adi', 'hidayat', 'official', 'tanya', 'jawab', 'fi']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['jodohmu', 'ditentukan', 'diusahakan', 'jemput', 'jodohmu', 'semoga', 'berjumpa', 'jodoh', 'shol']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['jodoh', 'tentu', 'usaha', 'jemput', 'jodoh', 'moga', 'jumpa', 'jodoh', 'shol']</t>
+          <t>['bismillah', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum', 'full', 'kajian', 'by', 'youtube', 'adi', 'hidayat', 'official', 'fi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['bismillah', 'moga', 'manfaat', 'barakallahu', 'fiikum', 'full', 'kaji', 'by', 'youtube', 'adi', 'hidayat', 'official', 'fi']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14999</v>
+        <v>29705</v>
       </c>
       <c r="C55" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>yusuf afwaan akhyar tv lagi dalam proses maintenance untuk kajian sekarang bisa diakses di channel youtube adi hidayat official akh</t>
+          <t>jodohmu sudah ditentukan tapi harus diusahakan jemput jodohmu dengan cara yang baik semoga berjumpa jodoh shol</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['yusuf', 'afwaan', 'akhyar', 'tv', 'lagi', 'dalam', 'proses', 'maintenance', 'untuk', 'kajian', 'sekarang', 'bisa', 'diakses', 'di', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
+          <t>['jodohmu', 'sudah', 'ditentukan', 'tapi', 'harus', 'diusahakan', 'jemput', 'jodohmu', 'dengan', 'cara', 'yang', 'baik', 'semoga', 'berjumpa', 'jodoh', 'shol']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['jodohmu', 'sudah', 'ditentukan', 'tapi', 'harus', 'diusahakan', 'jemput', 'jodohmu', 'dengan', 'cara', 'yang', 'baik', 'semoga', 'berjumpa', 'jodoh', 'shol']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['yusuf', 'afwaan', 'akhyar', 'tv', 'proses', 'maintenance', 'kajian', 'diakses', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['yusuf', 'afwaan', 'akhyar', 'tv', 'proses', 'maintenance', 'kaji', 'akses', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
+          <t>['jodohmu', 'ditentukan', 'diusahakan', 'jemput', 'jodohmu', 'semoga', 'berjumpa', 'jodoh', 'shol']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['jodoh', 'tentu', 'usaha', 'jemput', 'jodoh', 'moga', 'jumpa', 'jodoh', 'shol']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15000</v>
+        <v>29706</v>
       </c>
       <c r="C56" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
+          <t>yusuf afwaan akhyar tv lagi dalam proses maintenance untuk kajian sekarang bisa diakses di channel youtube adi hidayat official akh</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['yusuf', 'afwaan', 'akhyar', 'tv', 'lagi', 'dalam', 'proses', 'maintenance', 'untuk', 'kajian', 'sekarang', 'bisa', 'diakses', 'di', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['yusuf', 'afwaan', 'akhyar', 'televisi', 'lagi', 'dalam', 'proses', 'maintenance', 'untuk', 'kajian', 'sekarang', 'bisa', 'diakses', 'di', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['yusuf', 'afwaan', 'akhyar', 'televisi', 'proses', 'maintenance', 'kajian', 'diakses', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['yusuf', 'afwaan', 'akhyar', 'televisi', 'proses', 'maintenance', 'kaji', 'akses', 'channel', 'youtube', 'adi', 'hidayat', 'official', 'akh']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15001</v>
+        <v>29707</v>
       </c>
       <c r="C57" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>semoga allah melindungi mereka yg disana aamiin</t>
+          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melindungi', 'mereka', 'yg', 'disana', 'aamiin']</t>
+          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melindungi', 'disana', 'aamiin']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'lindung', 'sana', 'aamiin']</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'lapor', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15002</v>
+        <v>29708</v>
       </c>
       <c r="C58" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>semoga allah mendengar doa rakyat indonesia doa yang bisa membuat indonesia damai dan tentram</t>
+          <t>semoga allah melindungi mereka yg disana aamiin</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'mendengar', 'doa', 'rakyat', 'indonesia', 'doa', 'yang', 'bisa', 'membuat', 'indonesia', 'damai', 'dan', 'tentram']</t>
+          <t>['semoga', 'allah', 'melindungi', 'mereka', 'yg', 'disana', 'aamiin']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['semoga', 'allah', 'melindungi', 'mereka', 'yang', 'di, sana', 'amin']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'mendengar', 'doa', 'rakyat', 'indonesia', 'doa', 'indonesia', 'damai', 'tentram']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'dengar', 'doa', 'rakyat', 'indonesia', 'doa', 'indonesia', 'damai', 'tentram']</t>
+          <t>['semoga', 'allah', 'melindungi', 'di, sana', 'amin']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'lindung', 'di sana', 'amin']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15003</v>
+        <v>29709</v>
       </c>
       <c r="C59" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
+          <t>semoga allah mendengar doa rakyat indonesia doa yang bisa membuat indonesia damai dan tentram</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['semoga', 'allah', 'mendengar', 'doa', 'rakyat', 'indonesia', 'doa', 'yang', 'bisa', 'membuat', 'indonesia', 'damai', 'dan', 'tentram']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['semoga', 'allah', 'mendengar', 'doa', 'rakyat', 'indonesia', 'doa', 'yang', 'bisa', 'membuat', 'indonesia', 'damai', 'dan', 'tentram']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+          <t>['semoga', 'allah', 'mendengar', 'doa', 'rakyat', 'indonesia', 'doa', 'indonesia', 'damai', 'tentram']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'dengar', 'doa', 'rakyat', 'indonesia', 'doa', 'indonesia', 'damai', 'tentram']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15004</v>
+        <v>29710</v>
       </c>
       <c r="C60" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>allah tahu yang terbaik</t>
+          <t>this tweet from has been withheld in response to  report from the copyright holder learn more</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['allah', 'tahu', 'yang', 'terbaik']</t>
+          <t>['this', 'tweet', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'report', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['allah', 'terbaik']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['allah', 'baik']</t>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'laporan', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['this', 'twit', 'from', 'has', 'been', 'withheld', 'in', 'response', 'to', 'lapor', 'from', 'the', 'copyright', 'holder', 'learn', 'more']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15005</v>
+        <v>29711</v>
       </c>
       <c r="C61" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>gak bisa berhenti maksiat nabi shallallahu alaihi wa sallam bersabda yang artinya seandainya kalian berbuat do</t>
+          <t>allah tahu yang terbaik</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['gak', 'bisa', 'berhenti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'sallam', 'bersabda', 'yang', 'artinya', 'seandainya', 'kalian', 'berbuat', 'do']</t>
+          <t>['allah', 'tahu', 'yang', 'terbaik']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['allah', 'tahu', 'yang', 'terbaik']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['berhenti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'sallam', 'bersabda', 'seandainya', 'berbuat', 'do']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['henti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'sallam', 'sabda', 'anda', 'buat', 'do']</t>
+          <t>['allah', 'terbaik']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['allah', 'baik']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15006</v>
+        <v>29712</v>
       </c>
       <c r="C62" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>jika kita mau marah kepada ibu mikir dulu</t>
+          <t>gak bisa berhenti maksiat nabi shallallahu alaihi wa sallam bersabda yang artinya seandainya kalian berbuat do</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['jika', 'kita', 'mau', 'marah', 'kepada', 'ibu', 'mikir', 'dulu']</t>
+          <t>['gak', 'bisa', 'berhenti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'sallam', 'bersabda', 'yang', 'artinya', 'seandainya', 'kalian', 'berbuat', 'do']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['tidak', 'bisa', 'berhenti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'salam', 'bersabda', 'yang', 'artinya', 'seandainya', 'kalian', 'berbuat', 'do']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['marah', 'mikir']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['marah', 'mikir']</t>
+          <t>['berhenti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'salam', 'bersabda', 'seandainya', 'berbuat', 'do']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['henti', 'maksiat', 'nabi', 'shallallahu', 'alaihi', 'wa', 'salam', 'sabda', 'anda', 'buat', 'do']</t>
         </is>
       </c>
     </row>
@@ -2671,30 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15007</v>
+        <v>29713</v>
       </c>
       <c r="C63" t="n">
-        <v>190</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>jika kita mau marah kepada ibu mikir dulu</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jika', 'kita', 'mau', 'marah', 'kepada', 'ibu', 'mikir', 'dulu']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['jika', 'kita', 'mau', 'marah', 'kepada', 'ibu', 'pikir', 'dulu']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['marah', 'pikir']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['marah', 'pikir']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3022,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15008</v>
+        <v>29714</v>
       </c>
       <c r="C64" t="n">
-        <v>190</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>kurma di kota nabi</t>
-        </is>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kurma', 'di', 'kota', 'nabi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['kurma', 'kota', 'nabi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['kurma', 'kota', 'nabi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15009</v>
+        <v>29715</v>
       </c>
       <c r="C65" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ustadz adi hidayat mengajak umat islam untuk meramaikan bioskop menonton film hayya the power of love yan</t>
+          <t>kurma di kota nabi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['ustadz', 'adi', 'hidayat', 'mengajak', 'umat', 'islam', 'untuk', 'meramaikan', 'bioskop', 'menonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
+          <t>['kurma', 'di', 'kota', 'nabi']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kurma', 'di', 'kota', 'nabi']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['ustadz', 'adi', 'hidayat', 'mengajak', 'umat', 'islam', 'meramaikan', 'bioskop', 'menonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['ustadz', 'adi', 'hidayat', 'ajak', 'umat', 'islam', 'ramai', 'bioskop', 'tonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
+          <t>['kurma', 'kota', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['kurma', 'kota', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15010</v>
+        <v>29716</v>
       </c>
       <c r="C66" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>citacita saya ustadz adi hidayat ustadz adi hidayat</t>
+          <t>ustadz adi hidayat mengajak umat islam untuk meramaikan bioskop menonton film hayya the power of love yan</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['citacita', 'saya', 'ustadz', 'adi', 'hidayat', 'ustadz', 'adi', 'hidayat']</t>
+          <t>['ustadz', 'adi', 'hidayat', 'mengajak', 'umat', 'islam', 'untuk', 'meramaikan', 'bioskop', 'menonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
+          <t>['ustaz', 'adi', 'hidayat', 'mengajak', 'umat', 'islam', 'untuk', 'meramaikan', 'bioskop', 'menonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['citacita', 'ustadz', 'adi', 'hidayat', 'ustadz', 'adi', 'hidayat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['citacita', 'ustadz', 'adi', 'hidayat', 'ustadz', 'adi', 'hidayat']</t>
+          <t>['ustaz', 'adi', 'hidayat', 'mengajak', 'umat', 'islam', 'meramaikan', 'bioskop', 'menonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['ustaz', 'adi', 'hidayat', 'ajak', 'umat', 'islam', 'ramai', 'bioskop', 'tonton', 'film', 'hayya', 'the', 'power', 'of', 'love', 'yan']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15011</v>
+        <v>29717</v>
       </c>
       <c r="C67" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>pastikan saat orang melihat antum itu hatinya tenang barakallahu fiikum</t>
+          <t>citacita saya ustadz adi hidayat ustadz adi hidayat</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['pastikan', 'saat', 'orang', 'melihat', 'antum', 'itu', 'hatinya', 'tenang', 'barakallahu', 'fiikum']</t>
+          <t>['citacita', 'saya', 'ustadz', 'adi', 'hidayat', 'ustadz', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['citacita', 'saya', 'ustaz', 'adi', 'hidayat', 'ustaz', 'adi', 'hidayat']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['pastikan', 'orang', 'antum', 'hatinya', 'tenang', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['pasti', 'orang', 'antum', 'hati', 'tenang', 'barakallahu', 'fiikum']</t>
+          <t>['citacita', 'ustaz', 'adi', 'hidayat', 'ustaz', 'adi', 'hidayat']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['citacita', 'ustaz', 'adi', 'hidayat', 'ustaz', 'adi', 'hidayat']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15012</v>
+        <v>29718</v>
       </c>
       <c r="C68" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat jalan eyang prof bj habibie semoga diterima semua amal shalih beliau husnul khotimah amp ditempatkan di </t>
+          <t>pastikan saat orang melihat antum itu hatinya tenang barakallahu fiikum</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'eyang', 'prof', 'bj', 'habibie', 'semoga', 'diterima', 'semua', 'amal', 'shalih', 'beliau', 'husnul', 'khotimah', 'amp', 'ditempatkan', 'di']</t>
+          <t>['pastikan', 'saat', 'orang', 'melihat', 'antum', 'itu', 'hatinya', 'tenang', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['pastikan', 'saat', 'orang', 'melihat', 'kalian', 'itu', 'hatinya', 'tenang', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'eyang', 'prof', 'bj', 'habibie', 'semoga', 'diterima', 'amal', 'shalih', 'beliau', 'husnul', 'khotimah', 'ditempatkan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'eyang', 'prof', 'bj', 'habibie', 'moga', 'terima', 'amal', 'shalih', 'beliau', 'husnul', 'khotimah', 'tempat']</t>
+          <t>['pastikan', 'orang', 'hatinya', 'tenang', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['pasti', 'orang', 'hati', 'tenang', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -2883,30 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15013</v>
+        <v>29719</v>
       </c>
       <c r="C69" t="n">
-        <v>190</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">selamat jalan eyang prof bj habibie semoga diterima semua amal shalih beliau husnul khotimah amp ditempatkan di </t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['selamat', 'jalan', 'eyang', 'prof', 'bj', 'habibie', 'semoga', 'diterima', 'semua', 'amal', 'shalih', 'beliau', 'husnul', 'khotimah', 'amp', 'ditempatkan', 'di']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['selamat', 'jalan', 'eyang', 'prof', 'baju', 'habibie', 'semoga', 'diterima', 'semua', 'amal', 'saleh', 'beliau', 'husnul', 'khotimah', 'amp', 'ditempatkan', 'di']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['selamat', 'jalan', 'eyang', 'prof', 'baju', 'habibie', 'semoga', 'diterima', 'amal', 'saleh', 'beliau', 'husnul', 'khotimah', 'ditempatkan']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['selamat', 'jalan', 'eyang', 'prof', 'baju', 'habibie', 'moga', 'terima', 'amal', 'saleh', 'beliau', 'husnul', 'khotimah', 'tempat']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3264,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15014</v>
+        <v>29720</v>
       </c>
       <c r="C70" t="n">
-        <v>190</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>setan itu sebenarnya pengecut</t>
-        </is>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['setan', 'itu', 'sebenarnya', 'pengecut']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['setan', 'pengecut']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['setan', 'kecut']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3301,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15015</v>
+        <v>29721</v>
       </c>
       <c r="C71" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>alhamdulillah hari ini telah bersyahadat ko fredy sia</t>
+          <t>setan itu sebenarnya pengecut</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'hari', 'ini', 'telah', 'bersyahadat', 'ko', 'fredy', 'sia']</t>
+          <t>['setan', 'itu', 'sebenarnya', 'pengecut']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['setan', 'itu', 'sebenarnya', 'pengecut']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'bersyahadat', 'ko', 'fredy', 'sia']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'syahadat', 'ko', 'fredy', 'sia']</t>
+          <t>['setan', 'pengecut']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['setan', 'kecut']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3342,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15016</v>
+        <v>29722</v>
       </c>
       <c r="C72" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>aamiin</t>
+          <t>alhamdulillah hari ini telah bersyahadat ko fredy sia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['alhamdulillah', 'hari', 'ini', 'telah', 'bersyahadat', 'ko', 'fredy', 'sia']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['alhamdulillah', 'hari', 'ini', 'telah', 'bersyahadat', 'kok', 'fredy', 'kamu']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['alhamdulillah', 'bersyahadat', 'fredy']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'syahadat', 'fredy']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3383,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15017</v>
+        <v>29723</v>
       </c>
       <c r="C73" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>semua yang hidup punya ujian dan sungguh akan kami berikan cobaan kepadamu dengan sedikit ketakutan kelaparan</t>
+          <t>aamiin</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['semua', 'yang', 'hidup', 'punya', 'ujian', 'dan', 'sungguh', 'akan', 'kami', 'berikan', 'cobaan', 'kepadamu', 'dengan', 'sedikit', 'ketakutan', 'kelaparan']</t>
+          <t>['aamiin']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['amin']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['hidup', 'ujian', 'sungguh', 'cobaan', 'kepadamu', 'ketakutan', 'kelaparan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['hidup', 'uji', 'sungguh', 'coba', 'kepada', 'takut', 'lapar']</t>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['amin']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3424,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15018</v>
+        <v>29724</v>
       </c>
       <c r="C74" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jangan khawatir dunia memang terkadang melelahkan kita menanti janji al</t>
+          <t>semua yang hidup punya ujian dan sungguh akan kami berikan cobaan kepadamu dengan sedikit ketakutan kelaparan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['jangan', 'khawatir', 'dunia', 'memang', 'terkadang', 'melelahkan', 'kita', 'menanti', 'janji', 'al']</t>
+          <t>['semua', 'yang', 'hidup', 'punya', 'ujian', 'dan', 'sungguh', 'akan', 'kami', 'berikan', 'cobaan', 'kepadamu', 'dengan', 'sedikit', 'ketakutan', 'kelaparan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['semua', 'yang', 'hidup', 'punya', 'ujian', 'dan', 'sungguh', 'akan', 'kami', 'berikan', 'cobaan', 'kepadamu', 'dengan', 'sedikit', 'ketakutan', 'kelaparan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['khawatir', 'dunia', 'terkadang', 'melelahkan', 'janji', 'al']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['khawatir', 'dunia', 'terkadang', 'lelah', 'janji', 'al']</t>
+          <t>['hidup', 'ujian', 'sungguh', 'cobaan', 'kepadamu', 'ketakutan', 'kelaparan']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['hidup', 'uji', 'sungguh', 'coba', 'kepada', 'takut', 'lapar']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3465,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15019</v>
+        <v>29725</v>
       </c>
       <c r="C75" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>generasi tahfizh anakanak yang dididik menjadi penghafal al quran sejak dini insyaallah akan menjadi generasi ya</t>
+          <t>jangan khawatir dunia memang terkadang melelahkan kita menanti janji al</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['generasi', 'tahfizh', 'anakanak', 'yang', 'dididik', 'menjadi', 'penghafal', 'al', 'quran', 'sejak', 'dini', 'insyaallah', 'akan', 'menjadi', 'generasi', 'ya']</t>
+          <t>['jangan', 'khawatir', 'dunia', 'memang', 'terkadang', 'melelahkan', 'kita', 'menanti', 'janji', 'al']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['jangan', 'khawatir', 'dunia', 'memang', 'terkadang', 'melelahkan', 'kita', 'menanti', 'janji', 'al']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['generasi', 'tahfizh', 'anakanak', 'dididik', 'penghafal', 'al', 'quran', 'insyaallah', 'generasi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['generasi', 'tahfizh', 'anakanak', 'didik', 'hafal', 'al', 'quran', 'insyaallah', 'generasi']</t>
+          <t>['khawatir', 'dunia', 'terkadang', 'melelahkan', 'janji', 'al']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['khawatir', 'dunia', 'terkadang', 'lelah', 'janji', 'al']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15020</v>
+        <v>29726</v>
       </c>
       <c r="C76" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>manasik khudzu anni manasikakum demikianlah rasulullah shalallahu alaihi wassalam mengingatkan dalam sebuah</t>
+          <t>generasi tahfizh anakanak yang dididik menjadi penghafal al quran sejak dini insyaallah akan menjadi generasi ya</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'demikianlah', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam', 'mengingatkan', 'dalam', 'sebuah']</t>
+          <t>['generasi', 'tahfizh', 'anakanak', 'yang', 'dididik', 'menjadi', 'penghafal', 'al', 'quran', 'sejak', 'dini', 'insyaallah', 'akan', 'menjadi', 'generasi', 'ya']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['generasi', 'tahfizh', 'anakanak', 'yang', 'dididik', 'menjadi', 'penghafal', 'al', 'alquran', 'sejak', 'dini', 'insyaallah', 'akan', 'menjadi', 'generasi', 'ya']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam']</t>
+          <t>['generasi', 'tahfizh', 'anakanak', 'dididik', 'penghafal', 'al', 'alquran', 'insyaallah', 'generasi']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['generasi', 'tahfizh', 'anakanak', 'didik', 'hafal', 'al', 'alquran', 'insyaallah', 'generasi']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15021</v>
+        <v>29727</v>
       </c>
       <c r="C77" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>aamiin</t>
+          <t>manasik khudzu anni manasikakum demikianlah rasulullah shalallahu alaihi wassalam mengingatkan dalam sebuah</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'demikianlah', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam', 'mengingatkan', 'dalam', 'sebuah']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'demikianlah', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam', 'mengingatkan', 'dalam', 'sebuah']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['manasik', 'khudzu', 'anni', 'manasikakum', 'rasulullah', 'shalallahu', 'alaihi', 'wassalam']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15022</v>
+        <v>29728</v>
       </c>
       <c r="C78" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">wahai orangorang yang beriman bertakwalah kepada allah dan hendaklah setiap orang memperhatikan apa yang telah </t>
+          <t>aamiin</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['wahai', 'orangorang', 'yang', 'beriman', 'bertakwalah', 'kepada', 'allah', 'dan', 'hendaklah', 'setiap', 'orang', 'memperhatikan', 'apa', 'yang', 'telah']</t>
+          <t>['aamiin']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['amin']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['orangorang', 'beriman', 'bertakwalah', 'allah', 'orang', 'memperhatikan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['orangorang', 'iman', 'takwa', 'allah', 'orang', 'perhati']</t>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['amin']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15023</v>
+        <v>29729</v>
       </c>
       <c r="C79" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>dikenal dengan bacaan basmalah atau tasmiyah yang memiliki makna membaca nama</t>
+          <t xml:space="preserve">wahai orangorang yang beriman bertakwalah kepada allah dan hendaklah setiap orang memperhatikan apa yang telah </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['dikenal', 'dengan', 'bacaan', 'basmalah', 'atau', 'tasmiyah', 'yang', 'memiliki', 'makna', 'membaca', 'nama']</t>
+          <t>['wahai', 'orangorang', 'yang', 'beriman', 'bertakwalah', 'kepada', 'allah', 'dan', 'hendaklah', 'setiap', 'orang', 'memperhatikan', 'apa', 'yang', 'telah']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['wahai', 'orangorang', 'yang', 'beriman', 'bertakwalah', 'kepada', 'allah', 'dan', 'hendaklah', 'setiap', 'orang', 'memperhatikan', 'apa', 'yang', 'telah']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['dikenal', 'bacaan', 'basmalah', 'tasmiyah', 'memiliki', 'makna', 'membaca', 'nama']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['kenal', 'baca', 'basmalah', 'tasmiyah', 'milik', 'makna', 'baca', 'nama']</t>
+          <t>['orangorang', 'beriman', 'bertakwalah', 'allah', 'orang', 'memperhatikan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['orangorang', 'iman', 'takwa', 'allah', 'orang', 'perhati']</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15024</v>
+        <v>29730</v>
       </c>
       <c r="C80" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jika kamu berbuat baik berarti kamu berb</t>
+          <t>dikenal dengan bacaan basmalah atau tasmiyah yang memiliki makna membaca nama</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['jika', 'kamu', 'berbuat', 'baik', 'berarti', 'kamu', 'berb']</t>
+          <t>['dikenal', 'dengan', 'bacaan', 'basmalah', 'atau', 'tasmiyah', 'yang', 'memiliki', 'makna', 'membaca', 'nama']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['dikenal', 'dengan', 'bacaan', 'basmalah', 'atau', 'tasmiyah', 'yang', 'memiliki', 'makna', 'membaca', 'nama']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['berbuat', 'berb']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['buat', 'berb']</t>
+          <t>['dikenal', 'bacaan', 'basmalah', 'tasmiyah', 'memiliki', 'makna', 'membaca', 'nama']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['kenal', 'baca', 'basmalah', 'tasmiyah', 'milik', 'makna', 'baca', 'nama']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3711,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15025</v>
+        <v>29731</v>
       </c>
       <c r="C81" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kenapa surga tidak kita kejar semoga bermanfaat barakallahu fiikum</t>
+          <t>jika kamu berbuat baik berarti kamu berb</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['kenapa', 'surga', 'tidak', 'kita', 'kejar', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>['jika', 'kamu', 'berbuat', 'baik', 'berarti', 'kamu', 'berb']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['jika', 'kamu', 'berbuat', 'baik', 'berarti', 'kamu', 'berb']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['surga', 'kejar', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['surga', 'kejar', 'moga', 'manfaat', 'barakallahu', 'fiikum']</t>
+          <t>['berbuat', 'berb']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['buat', 'berb']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3752,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15026</v>
+        <v>29732</v>
       </c>
       <c r="C82" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>adab sebelum ilmu ilmu sebelum amal wujudkan ilmu dalam amal</t>
+          <t>kenapa surga tidak kita kejar semoga bermanfaat barakallahu fiikum</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['adab', 'sebelum', 'ilmu', 'ilmu', 'sebelum', 'amal', 'wujudkan', 'ilmu', 'dalam', 'amal']</t>
+          <t>['kenapa', 'surga', 'tidak', 'kita', 'kejar', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 10 outcomes&gt;</t>
+          <t>['kenapa', 'surga', 'tidak', 'kita', 'kejar', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['adab', 'ilmu', 'ilmu', 'amal', 'wujudkan', 'ilmu', 'amal']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['adab', 'ilmu', 'ilmu', 'amal', 'wujud', 'ilmu', 'amal']</t>
+          <t>['surga', 'kejar', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['surga', 'kejar', 'moga', 'manfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3793,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15027</v>
+        <v>29733</v>
       </c>
       <c r="C83" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>jangan gadaikan cinta allah dengan dunia semoga bermanfaat barakallahu fiikum</t>
+          <t>adab sebelum ilmu ilmu sebelum amal wujudkan ilmu dalam amal</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['jangan', 'gadaikan', 'cinta', 'allah', 'dengan', 'dunia', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>['adab', 'sebelum', 'ilmu', 'ilmu', 'sebelum', 'amal', 'wujudkan', 'ilmu', 'dalam', 'amal']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['adab', 'sebelum', 'ilmu', 'ilmu', 'sebelum', 'amal', 'wujudkan', 'ilmu', 'dalam', 'amal']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['gadaikan', 'cinta', 'allah', 'dunia', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 6 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['gadai', 'cinta', 'allah', 'dunia', 'moga', 'manfaat', 'barakallahu', 'fiikum']</t>
+          <t>['adab', 'ilmu', 'ilmu', 'amal', 'wujudkan', 'ilmu', 'amal']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['adab', 'ilmu', 'ilmu', 'amal', 'wujud', 'ilmu', 'amal']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3834,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15028</v>
+        <v>29734</v>
       </c>
       <c r="C84" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>sumber kebahagiaan adalah saat kita mampu menaklukan nafsu demi menggapai takwa yang melahirkan ketenangan jiwa</t>
+          <t>jangan gadaikan cinta allah dengan dunia semoga bermanfaat barakallahu fiikum</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['sumber', 'kebahagiaan', 'adalah', 'saat', 'kita', 'mampu', 'menaklukan', 'nafsu', 'demi', 'menggapai', 'takwa', 'yang', 'melahirkan', 'ketenangan', 'jiwa']</t>
+          <t>['jangan', 'gadaikan', 'cinta', 'allah', 'dengan', 'dunia', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['jangan', 'gadaikan', 'cinta', 'allah', 'dengan', 'dunia', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['sumber', 'kebahagiaan', 'menaklukan', 'nafsu', 'menggapai', 'takwa', 'melahirkan', 'ketenangan', 'jiwa']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['sumber', 'bahagia', 'takluk', 'nafsu', 'gapai', 'takwa', 'lahir', 'tenang', 'jiwa']</t>
+          <t>['gadaikan', 'cinta', 'allah', 'dunia', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['gadai', 'cinta', 'allah', 'dunia', 'moga', 'manfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3875,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15029</v>
+        <v>29735</v>
       </c>
       <c r="C85" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>senyummu di hadapan saudaramu adalah sedekah bagimu hr attirmidz</t>
+          <t>sumber kebahagiaan adalah saat kita mampu menaklukan nafsu demi menggapai takwa yang melahirkan ketenangan jiwa</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['senyummu', 'di', 'hadapan', 'saudaramu', 'adalah', 'sedekah', 'bagimu', 'hr', 'attirmidz']</t>
+          <t>['sumber', 'kebahagiaan', 'adalah', 'saat', 'kita', 'mampu', 'menaklukan', 'nafsu', 'demi', 'menggapai', 'takwa', 'yang', 'melahirkan', 'ketenangan', 'jiwa']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['sumber', 'kebahagiaan', 'adalah', 'saat', 'kita', 'mampu', 'menaklukan', 'nafsu', 'demi', 'menggapai', 'takwa', 'yang', 'melahirkan', 'ketenangan', 'jiwa']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['senyummu', 'hadapan', 'saudaramu', 'sedekah', 'bagimu', 'hr', 'attirmidz']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['senyum', 'hadap', 'saudara', 'sedekah', 'bagi', 'hr', 'attirmidz']</t>
+          <t>['sumber', 'kebahagiaan', 'menaklukan', 'nafsu', 'menggapai', 'takwa', 'melahirkan', 'ketenangan', 'jiwa']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['sumber', 'bahagia', 'takluk', 'nafsu', 'gapai', 'takwa', 'lahir', 'tenang', 'jiwa']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3916,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15030</v>
+        <v>29736</v>
       </c>
       <c r="C86" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jangan sampai salah pilih teman weloveyou</t>
+          <t>senyummu di hadapan saudaramu adalah sedekah bagimu hr attirmidz</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['jangan', 'sampai', 'salah', 'pilih', 'teman', 'weloveyou']</t>
+          <t>['senyummu', 'di', 'hadapan', 'saudaramu', 'adalah', 'sedekah', 'bagimu', 'hr', 'attirmidz']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['senyummu', 'di', 'hadapan', 'saudaramu', 'adalah', 'sedekah', 'bagimu', 'hari', 'attirmidz']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['salah', 'pilih', 'teman', 'weloveyou']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['salah', 'pilih', 'teman', 'weloveyou']</t>
+          <t>['senyummu', 'hadapan', 'saudaramu', 'sedekah', 'bagimu', 'attirmidz']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['senyum', 'hadap', 'saudara', 'sedekah', 'bagi', 'attirmidz']</t>
         </is>
       </c>
     </row>
@@ -3527,34 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15031</v>
+        <v>29737</v>
       </c>
       <c r="C87" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>sindiran halus tapi tajam</t>
+          <t>jangan sampai salah pilih teman weloveyou</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['sindiran', 'halus', 'tapi', 'tajam']</t>
+          <t>['jangan', 'sampai', 'salah', 'pilih', 'teman', 'weloveyou']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jangan', 'sampai', 'salah', 'pilih', 'teman', 'weloveyou']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['sindiran', 'halus', 'tajam']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['sindir', 'halus', 'tajam']</t>
+          <t>['salah', 'pilih', 'teman', 'weloveyou']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['salah', 'pilih', 'teman', 'weloveyou']</t>
         </is>
       </c>
     </row>
@@ -3563,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15032</v>
+        <v>29738</v>
       </c>
       <c r="C88" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>dunia memang tempat capek</t>
+          <t>sindiran halus tapi tajam</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['dunia', 'memang', 'tempat', 'capek']</t>
+          <t>['sindiran', 'halus', 'tapi', 'tajam']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['sindiran', 'halus', 'tapi', 'tajam']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['dunia', 'capek']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['dunia', 'capek']</t>
+          <t>['sindiran', 'halus', 'tajam']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['sindir', 'halus', 'tajam']</t>
         </is>
       </c>
     </row>
@@ -3599,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15033</v>
+        <v>29739</v>
       </c>
       <c r="C89" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>diamdiam merayap semoga bermanfaat barakallahu fiikum</t>
+          <t>dunia memang tempat capek</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['diamdiam', 'merayap', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>['dunia', 'memang', 'tempat', 'capek']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['dunia', 'memang', 'tempat', 'cape']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['diamdiam', 'merayap', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['diamdiam', 'rayap', 'moga', 'manfaat', 'barakallahu', 'fiikum']</t>
+          <t>['dunia', 'cape']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['dunia', 'cape']</t>
         </is>
       </c>
     </row>
@@ -3635,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15034</v>
+        <v>29740</v>
       </c>
       <c r="C90" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cara meningkatkan kecerdasan hingga kali lipat</t>
+          <t>diamdiam merayap semoga bermanfaat barakallahu fiikum</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['cara', 'meningkatkan', 'kecerdasan', 'hingga', 'kali', 'lipat']</t>
+          <t>['diamdiam', 'merayap', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['diamdiam', 'merayap', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['meningkatkan', 'kecerdasan', 'kali', 'lipat']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['tingkat', 'cerdas', 'kali', 'lipat']</t>
+          <t>['diamdiam', 'merayap', 'semoga', 'bermanfaat', 'barakallahu', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['diamdiam', 'rayap', 'moga', 'manfaat', 'barakallahu', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -3671,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15035</v>
+        <v>29741</v>
       </c>
       <c r="C91" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ketenangan itu suatu hal yang penting</t>
+          <t>cara meningkatkan kecerdasan hingga kali lipat</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['ketenangan', 'itu', 'suatu', 'hal', 'yang', 'penting']</t>
+          <t>['cara', 'meningkatkan', 'kecerdasan', 'hingga', 'kali', 'lipat']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['cara', 'meningkatkan', 'kecerdasan', 'hingga', 'kali', 'lipat']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['ketenangan']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['tenang']</t>
+          <t>['meningkatkan', 'kecerdasan', 'kali', 'lipat']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['tingkat', 'cerdas', 'kali', 'lipat']</t>
         </is>
       </c>
     </row>
@@ -3707,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15036</v>
+        <v>29742</v>
       </c>
       <c r="C92" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt dikerjain orang alim dan shalih itu berat mas saja nggak kuat biar saya saja semampunya yang tugas piket</t>
+          <t>ketenangan itu suatu hal yang penting</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'dikerjain', 'orang', 'alim', 'dan', 'shalih', 'itu', 'berat', 'mas', 'saja', 'nggak', 'kuat', 'biar', 'saya', 'saja', 'semampunya', 'yang', 'tugas', 'piket']</t>
+          <t>['ketenangan', 'itu', 'suatu', 'hal', 'yang', 'penting']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['ketenangan', 'itu', 'suatu', 'hal', 'yang', 'penting']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['dikerjain', 'orang', 'alim', 'shalih', 'berat', 'mas', 'nggak', 'kuat', 'tugas', 'piket']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['dikerjain', 'orang', 'alim', 'shalih', 'berat', 'mas', 'nggak', 'kuat', 'tugas', 'piket']</t>
+          <t>['ketenangan']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['tenang']</t>
         </is>
       </c>
     </row>
@@ -3743,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15037</v>
+        <v>29743</v>
       </c>
       <c r="C93" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>taqobbalallahu minna wa minkum taqobbal yaa karim</t>
+          <t>rt dikerjain orang alim dan shalih itu berat mas saja nggak kuat biar saya saja semampunya yang tugas piket</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'yaa', 'karim']</t>
+          <t>['rt', 'dikerjain', 'orang', 'alim', 'dan', 'shalih', 'itu', 'berat', 'mas', 'saja', 'nggak', 'kuat', 'biar', 'saya', 'saja', 'semampunya', 'yang', 'tugas', 'piket']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'dikerjain', 'orang', 'alim', 'dan', 'saleh', 'itu', 'berat', 'mas', 'saja', 'enggak', 'kuat', 'biar', 'saya', 'saja', 'semampunya', 'yang', 'tugas', 'piket']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'yaa', 'karim']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'yaa', 'karim']</t>
+          <t>['dikerjain', 'orang', 'alim', 'saleh', 'berat', 'mas', 'kuat', 'tugas', 'piket']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['dikerjain', 'orang', 'alim', 'saleh', 'berat', 'mas', 'kuat', 'tugas', 'piket']</t>
         </is>
       </c>
     </row>
@@ -3779,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15038</v>
+        <v>29744</v>
       </c>
       <c r="C94" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>persiapkan dirimu untuk menghadapi kematian</t>
+          <t>taqobbalallahu minna wa minkum taqobbal yaa karim</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['persiapkan', 'dirimu', 'untuk', 'menghadapi', 'kematian']</t>
+          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'yaa', 'karim']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'ya', 'karim']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['persiapkan', 'dirimu', 'menghadapi', 'kematian']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['siap', 'diri', 'hadap', 'mati']</t>
+          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'karim']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['taqobbalallahu', 'minna', 'wa', 'minkum', 'taqobbal', 'karim']</t>
         </is>
       </c>
     </row>
@@ -3815,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15039</v>
+        <v>29745</v>
       </c>
       <c r="C95" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>doa jumat</t>
+          <t>persiapkan dirimu untuk menghadapi kematian</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['doa', 'jumat']</t>
+          <t>['persiapkan', 'dirimu', 'untuk', 'menghadapi', 'kematian']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['persiapkan', 'dirimu', 'untuk', 'menghadapi', 'kematian']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['doa', 'jumat']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['doa', 'jumat']</t>
+          <t>['persiapkan', 'dirimu', 'menghadapi', 'kematian']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['siap', 'diri', 'hadap', 'mati']</t>
         </is>
       </c>
     </row>
@@ -3851,30 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15040</v>
+        <v>29746</v>
       </c>
       <c r="C96" t="n">
-        <v>190</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>doa jumat</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['doa', 'jumat']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['doa', 'jumat']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['doa', 'jumat']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['doa', 'jumat']</t>
         </is>
       </c>
     </row>
@@ -3883,34 +4367,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15041</v>
+        <v>29747</v>
       </c>
       <c r="C97" t="n">
-        <v>190</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>silahkan nikmati bangkai saudara anda</t>
-        </is>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['silahkan', 'nikmati', 'bangkai', 'saudara', 'anda']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['silahkan', 'nikmati', 'bangkai', 'saudara']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['silah', 'nikmat', 'bangkai', 'saudara']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
